--- a/performance/result-template.xlsx
+++ b/performance/result-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Polarized-Steganographic-Codes\performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE9E5D5-3E91-42DC-AE5F-1B2194C4A955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17294C67-CC58-4E25-B52C-1216C64EB943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,23 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="26">
-  <si>
-    <r>
-      <t xml:space="preserve">Source of the cover: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">The source of cover is required here, e.g., 10,000 BOSSBase grayscale, size 512*512, or randomly generated sequence, length of 2^20. </t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="25">
   <si>
     <r>
       <t xml:space="preserve">Distortion/Profile: </t>
@@ -193,44 +177,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>α</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Briefly describe the results of evaluation conducted, e.g., In this experiment, is clear that SPSC has a prior anti-detection performance than the STC since the detection error rate of which is higher. </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Table 2: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>The embedding efficiency of the compared methods (efficiency/avg. throughput)
-e.g., Embedding efficiency evaluated under the square profile with the cover length of 2^20.</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>0.0000/0.00</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -285,9 +231,46 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>The detection error rate (in %) of the steganalysis tools (error rate./avg. throughput)
+      <t>The detection error rate (in %) of the steganalytic tools (error rate./avg. throughput)
 e.g., Image steganography on BOSSBase with J-UNIWARD distortion.</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>The detection error rate (in %) of the steganalytic tools (error rate./avg. throughput)
+e.g., Audio steganography based on AHCM.</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Source of the cover: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">The source of cover is required here, e.g., 10,000 BOSSBase grayscale, size 512*512. </t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Briefly describe the results of evaluation conducted, e.g., In this evaluation, is clear that SPSC has a prior anti-detection performance than the STC since the detection error rate of which is higher. </t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -546,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -616,9 +599,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -917,7 +897,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -928,27 +908,27 @@
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
       <c r="F2" s="18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
       <c r="F3" s="18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G3" s="18"/>
     </row>
@@ -961,9 +941,9 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
@@ -972,9 +952,9 @@
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
@@ -983,9 +963,9 @@
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
     </row>
-    <row r="7" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
@@ -994,9 +974,9 @@
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
     </row>
-    <row r="8" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -1015,129 +995,129 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
+      <c r="A10" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
@@ -1151,7 +1131,7 @@
     </row>
     <row r="17" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
@@ -1162,126 +1142,126 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="11">
-        <v>4</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="11">
-        <v>10</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="11">
-        <v>16</v>
+      <c r="A21" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
-        <v>20</v>
+      <c r="A22" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>

--- a/performance/result-template.xlsx
+++ b/performance/result-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Polarized-Steganographic-Codes\performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17294C67-CC58-4E25-B52C-1216C64EB943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4A71A0-2C27-4260-9226-3B77BEDACE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="25">
   <si>
     <r>
       <t xml:space="preserve">Distortion/Profile: </t>
@@ -221,40 +221,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Table 1: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>The detection error rate (in %) of the steganalytic tools (error rate./avg. throughput)
-e.g., Image steganography on BOSSBase with J-UNIWARD distortion.</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Table 2: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>The detection error rate (in %) of the steganalytic tools (error rate./avg. throughput)
-e.g., Audio steganography based on AHCM.</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Source of the cover: </t>
     </r>
     <r>
@@ -271,6 +237,40 @@
   </si>
   <si>
     <t xml:space="preserve">Briefly describe the results of evaluation conducted, e.g., In this evaluation, is clear that SPSC has a prior anti-detection performance than the STC since the detection error rate of which is higher. </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>The error rate (in %) of the steganalytic tools (error rate./avg. running time in sec.)
+e.g., Image steganography on BOSSBase with J-UNIWARD distortion.</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>The error rate (in %) of the steganalytic tools (error rate./avg. running time in sec.)
+e.g., Audio steganography based on AHCM.</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -965,7 +965,7 @@
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
@@ -996,7 +996,7 @@
     </row>
     <row r="10" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="17" spans="1:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
@@ -1164,8 +1164,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>6</v>
+      <c r="A19" s="11">
+        <v>0.1</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>16</v>
@@ -1187,8 +1187,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>5</v>
+      <c r="A20" s="11">
+        <v>0.2</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>16</v>
@@ -1210,8 +1210,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>7</v>
+      <c r="A21" s="11">
+        <v>0.3</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>16</v>
@@ -1233,8 +1233,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>8</v>
+      <c r="A22" s="12">
+        <v>0.4</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>16</v>
@@ -1261,7 +1261,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
